--- a/municipal/სასტუმროები/ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში/ქ. თბილისი.xlsx
+++ b/municipal/სასტუმროები/ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში/ქ. თბილისი.xlsx
@@ -28,13 +28,13 @@
     <t>ლუქსი</t>
   </si>
   <si>
-    <t>ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში ქ. თბილისის მუნიციპალიტეტში</t>
-  </si>
-  <si>
     <t>(ერთეული)</t>
   </si>
   <si>
     <t>ნომრების რაოდენობა სულ</t>
+  </si>
+  <si>
+    <t>ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში ქალაქი თბილისის მუნიციპალიტეტში</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -552,7 +552,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="10">
         <v>3323</v>

--- a/municipal/სასტუმროები/ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში/ქ. თბილისი.xlsx
+++ b/municipal/სასტუმროები/ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში/ქ. თბილისი.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A7B235-FCB8-4AD6-87F1-601A39BF60EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21990" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქ. თბილისი" sheetId="2" r:id="rId1"/>
@@ -14,16 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>სამი და მეტ ადგილიანი</t>
-  </si>
-  <si>
-    <t>ორ ადგილიანი</t>
-  </si>
-  <si>
-    <t>ერთ ადგილიანი</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ლუქსი</t>
   </si>
@@ -31,16 +23,34 @@
     <t>(ერთეული)</t>
   </si>
   <si>
-    <t>ნომრების რაოდენობა სულ</t>
+    <t>*საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები</t>
   </si>
   <si>
-    <t>ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში ქალაქი თბილისის მუნიციპალიტეტში</t>
+    <t>(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+  </si>
+  <si>
+    <t>ნომრების რაოდენობა სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში* ქ. თბილისში</t>
+  </si>
+  <si>
+    <t>სულ</t>
+  </si>
+  <si>
+    <t>ერთადგილიანი</t>
+  </si>
+  <si>
+    <t>ორადგილიანი</t>
+  </si>
+  <si>
+    <t>სამი და მეტი ადგილით</t>
+  </si>
+  <si>
+    <t>(დეკლარირებული მონაცემები)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="###0"/>
@@ -56,12 +66,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -69,12 +73,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
@@ -86,8 +91,7 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
@@ -95,12 +99,10 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -113,22 +115,23 @@
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,8 +153,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -159,66 +171,69 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -309,6 +324,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -344,6 +376,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -519,307 +568,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="7" customWidth="1"/>
-    <col min="2" max="13" width="9.140625" style="16"/>
-    <col min="14" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2" max="13" width="9.140625" style="7"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2011</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2012</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2013</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2014</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2015</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2016</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2017</v>
+      </c>
+      <c r="J4" s="10">
+        <v>2018</v>
+      </c>
+      <c r="K4" s="10">
+        <v>2019</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2020</v>
+      </c>
+      <c r="M4" s="10">
+        <v>2021</v>
+      </c>
+      <c r="N4" s="9">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15">
+        <v>3323</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3612</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3316</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3556</v>
+      </c>
+      <c r="F5" s="15">
+        <v>4280</v>
+      </c>
+      <c r="G5" s="15">
+        <v>6188</v>
+      </c>
+      <c r="H5" s="15">
+        <v>8350</v>
+      </c>
+      <c r="I5" s="15">
+        <v>9042</v>
+      </c>
+      <c r="J5" s="15">
+        <v>9946</v>
+      </c>
+      <c r="K5" s="15">
+        <v>11173</v>
+      </c>
+      <c r="L5" s="15">
+        <v>8406</v>
+      </c>
+      <c r="M5" s="16">
+        <v>11598</v>
+      </c>
+      <c r="N5" s="16">
+        <v>13654</v>
+      </c>
+      <c r="O5" s="16">
+        <v>14171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17">
+        <v>273</v>
+      </c>
+      <c r="C6" s="17">
+        <v>319</v>
+      </c>
+      <c r="D6" s="17">
+        <v>347</v>
+      </c>
+      <c r="E6" s="17">
+        <v>352</v>
+      </c>
+      <c r="F6" s="17">
+        <v>402</v>
+      </c>
+      <c r="G6" s="17">
+        <v>523</v>
+      </c>
+      <c r="H6" s="17">
+        <v>686</v>
+      </c>
+      <c r="I6" s="17">
+        <v>715</v>
+      </c>
+      <c r="J6" s="17">
+        <v>709</v>
+      </c>
+      <c r="K6" s="17">
+        <v>783</v>
+      </c>
+      <c r="L6" s="17">
+        <v>579</v>
+      </c>
+      <c r="M6" s="17">
+        <v>1086</v>
+      </c>
+      <c r="N6" s="17">
+        <v>782</v>
+      </c>
+      <c r="O6" s="17">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="19">
-        <v>2010</v>
-      </c>
-      <c r="C3" s="19">
-        <v>2011</v>
-      </c>
-      <c r="D3" s="19">
-        <v>2012</v>
-      </c>
-      <c r="E3" s="19">
-        <v>2013</v>
-      </c>
-      <c r="F3" s="19">
-        <v>2014</v>
-      </c>
-      <c r="G3" s="19">
-        <v>2015</v>
-      </c>
-      <c r="H3" s="19">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="19">
-        <v>2017</v>
-      </c>
-      <c r="J3" s="19">
-        <v>2018</v>
-      </c>
-      <c r="K3" s="19">
-        <v>2019</v>
-      </c>
-      <c r="L3" s="19">
-        <v>2020</v>
-      </c>
-      <c r="M3" s="19">
-        <v>2021</v>
-      </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10">
-        <v>3323</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3612</v>
-      </c>
-      <c r="D4" s="10">
-        <v>3316</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3556</v>
-      </c>
-      <c r="F4" s="10">
-        <v>4280</v>
-      </c>
-      <c r="G4" s="10">
-        <v>6188</v>
-      </c>
-      <c r="H4" s="10">
-        <v>8350</v>
-      </c>
-      <c r="I4" s="10">
-        <v>9042</v>
-      </c>
-      <c r="J4" s="10">
-        <v>9946</v>
-      </c>
-      <c r="K4" s="10">
-        <v>11173</v>
-      </c>
-      <c r="L4" s="10">
-        <v>8406</v>
-      </c>
-      <c r="M4" s="10">
-        <v>11598</v>
-      </c>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B7" s="18">
+        <v>1186</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1161</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1092</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1115</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1197</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1410</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1662</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1714</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1815</v>
+      </c>
+      <c r="K7" s="17">
+        <v>1989</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1641</v>
+      </c>
+      <c r="M7" s="17">
+        <v>1757</v>
+      </c>
+      <c r="N7" s="17">
+        <v>1758</v>
+      </c>
+      <c r="O7" s="17">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1672</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1952</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1660</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1846</v>
+      </c>
+      <c r="F8" s="17">
+        <v>2362</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3640</v>
+      </c>
+      <c r="H8" s="17">
+        <v>4741</v>
+      </c>
+      <c r="I8" s="17">
+        <v>5229</v>
+      </c>
+      <c r="J8" s="17">
+        <v>5972</v>
+      </c>
+      <c r="K8" s="17">
+        <v>6744</v>
+      </c>
+      <c r="L8" s="17">
+        <v>5037</v>
+      </c>
+      <c r="M8" s="17">
+        <v>6889</v>
+      </c>
+      <c r="N8" s="17">
+        <v>9197</v>
+      </c>
+      <c r="O8" s="17">
+        <v>9465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20">
+        <v>192</v>
+      </c>
+      <c r="C9" s="21">
+        <v>180</v>
+      </c>
+      <c r="D9" s="21">
+        <v>217</v>
+      </c>
+      <c r="E9" s="21">
+        <v>243</v>
+      </c>
+      <c r="F9" s="21">
+        <v>319</v>
+      </c>
+      <c r="G9" s="21">
+        <v>615</v>
+      </c>
+      <c r="H9" s="21">
+        <v>1261</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1384</v>
+      </c>
+      <c r="J9" s="21">
+        <v>1450</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1657</v>
+      </c>
+      <c r="L9" s="21">
+        <v>1149</v>
+      </c>
+      <c r="M9" s="21">
+        <v>1866</v>
+      </c>
+      <c r="N9" s="21">
+        <v>1917</v>
+      </c>
+      <c r="O9" s="21">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
-        <v>273</v>
-      </c>
-      <c r="C5" s="13">
-        <v>319</v>
-      </c>
-      <c r="D5" s="13">
-        <v>347</v>
-      </c>
-      <c r="E5" s="12">
-        <v>352</v>
-      </c>
-      <c r="F5" s="12">
-        <v>402</v>
-      </c>
-      <c r="G5" s="12">
-        <v>523</v>
-      </c>
-      <c r="H5" s="12">
-        <v>686</v>
-      </c>
-      <c r="I5" s="12">
-        <v>715</v>
-      </c>
-      <c r="J5" s="12">
-        <v>709</v>
-      </c>
-      <c r="K5" s="12">
-        <v>783</v>
-      </c>
-      <c r="L5" s="12">
-        <v>579</v>
-      </c>
-      <c r="M5" s="12">
-        <v>1086</v>
-      </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14">
-        <v>1186</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1161</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1092</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1115</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1197</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1410</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1662</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1714</v>
-      </c>
-      <c r="J6" s="12">
-        <v>1815</v>
-      </c>
-      <c r="K6" s="12">
-        <v>1989</v>
-      </c>
-      <c r="L6" s="12">
-        <v>1641</v>
-      </c>
-      <c r="M6" s="12">
-        <v>1757</v>
-      </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="15">
-        <v>1672</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1952</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1660</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1846</v>
-      </c>
-      <c r="F7" s="12">
-        <v>2362</v>
-      </c>
-      <c r="G7" s="12">
-        <v>3640</v>
-      </c>
-      <c r="H7" s="12">
-        <v>4741</v>
-      </c>
-      <c r="I7" s="12">
-        <v>5229</v>
-      </c>
-      <c r="J7" s="12">
-        <v>5972</v>
-      </c>
-      <c r="K7" s="12">
-        <v>6744</v>
-      </c>
-      <c r="L7" s="12">
-        <v>5037</v>
-      </c>
-      <c r="M7" s="12">
-        <v>6889</v>
-      </c>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="14">
-        <v>192</v>
-      </c>
-      <c r="C8" s="12">
-        <v>180</v>
-      </c>
-      <c r="D8" s="12">
-        <v>217</v>
-      </c>
-      <c r="E8" s="12">
-        <v>243</v>
-      </c>
-      <c r="F8" s="12">
-        <v>319</v>
-      </c>
-      <c r="G8" s="12">
-        <v>615</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1261</v>
-      </c>
-      <c r="I8" s="12">
-        <v>1384</v>
-      </c>
-      <c r="J8" s="12">
-        <v>1450</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1657</v>
-      </c>
-      <c r="L8" s="12">
-        <v>1149</v>
-      </c>
-      <c r="M8" s="12">
-        <v>1866</v>
-      </c>
-      <c r="N8" s="6"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
